--- a/1 track motion using openCV/Book1.xlsx
+++ b/1 track motion using openCV/Book1.xlsx
@@ -14474,52 +14474,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>153.5</v>
+        <v>152.22</v>
       </c>
       <c r="B2" t="n">
-        <v>107.53</v>
+        <v>106.51</v>
       </c>
       <c r="C2" t="n">
-        <v>152.35</v>
+        <v>151.68</v>
       </c>
       <c r="D2" t="n">
-        <v>108.89</v>
+        <v>105.5</v>
       </c>
       <c r="E2" t="n">
-        <v>146.48</v>
+        <v>148.44</v>
       </c>
       <c r="F2" t="n">
-        <v>105.68</v>
+        <v>104.57</v>
       </c>
       <c r="G2" t="n">
-        <v>148.18</v>
+        <v>149.15</v>
       </c>
       <c r="H2" t="n">
-        <v>117.58</v>
+        <v>114.71</v>
       </c>
       <c r="I2" t="n">
-        <v>147.62</v>
+        <v>155</v>
       </c>
       <c r="J2" t="n">
-        <v>115.5</v>
+        <v>109</v>
       </c>
       <c r="K2" t="n">
-        <v>147.75</v>
+        <v>148.53</v>
       </c>
       <c r="L2" t="n">
-        <v>115.34</v>
+        <v>113.55</v>
       </c>
       <c r="M2" t="n">
-        <v>147.48</v>
+        <v>148.88</v>
       </c>
       <c r="N2" t="n">
-        <v>113.38</v>
+        <v>112.71</v>
       </c>
       <c r="O2" t="n">
-        <v>155.98</v>
+        <v>155.09</v>
       </c>
       <c r="P2" t="n">
-        <v>116.86</v>
+        <v>114.45</v>
       </c>
       <c r="Q2" t="n">
         <v>151.25</v>
@@ -14528,124 +14528,124 @@
         <v>113.26</v>
       </c>
       <c r="S2" t="n">
-        <v>149.93</v>
+        <v>149.48</v>
       </c>
       <c r="T2" t="n">
-        <v>118.01</v>
+        <v>115.83</v>
       </c>
       <c r="U2" t="n">
-        <v>156.85</v>
+        <v>154.43</v>
       </c>
       <c r="V2" t="n">
-        <v>119.52</v>
+        <v>117.52</v>
       </c>
       <c r="W2" t="n">
-        <v>146.19</v>
+        <v>148.76</v>
       </c>
       <c r="X2" t="n">
-        <v>115.43</v>
+        <v>112.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>152.11</v>
+        <v>149.63</v>
       </c>
       <c r="Z2" t="n">
-        <v>115.63</v>
+        <v>113.54</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.4</v>
+        <v>150.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.75</v>
+        <v>113.86</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.96</v>
+        <v>142.25</v>
       </c>
       <c r="AD2" t="n">
-        <v>115.08</v>
+        <v>113.34</v>
       </c>
       <c r="AE2" t="n">
-        <v>142.42</v>
+        <v>142.82</v>
       </c>
       <c r="AF2" t="n">
-        <v>113.05</v>
+        <v>112.18</v>
       </c>
       <c r="AG2" t="n">
-        <v>147.67</v>
+        <v>147.32</v>
       </c>
       <c r="AH2" t="n">
-        <v>114.64</v>
+        <v>112.89</v>
       </c>
       <c r="AI2" t="n">
-        <v>147.38</v>
+        <v>147.49</v>
       </c>
       <c r="AJ2" t="n">
-        <v>114.61</v>
+        <v>112.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>146.84</v>
+        <v>147.48</v>
       </c>
       <c r="AL2" t="n">
-        <v>115.64</v>
+        <v>112.57</v>
       </c>
       <c r="AM2" t="n">
-        <v>155</v>
+        <v>150.28</v>
       </c>
       <c r="AN2" t="n">
-        <v>106</v>
+        <v>110.3</v>
       </c>
       <c r="AO2" t="n">
-        <v>146.68</v>
+        <v>146.72</v>
       </c>
       <c r="AP2" t="n">
-        <v>115.64</v>
+        <v>113.22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>144.18</v>
+        <v>144.22</v>
       </c>
       <c r="AR2" t="n">
-        <v>112.85</v>
+        <v>111.28</v>
       </c>
       <c r="AS2" t="n">
-        <v>142.39</v>
+        <v>143.19</v>
       </c>
       <c r="AT2" t="n">
-        <v>115.33</v>
+        <v>112.86</v>
       </c>
       <c r="AU2" t="n">
-        <v>151.91</v>
+        <v>149.18</v>
       </c>
       <c r="AV2" t="n">
-        <v>113.75</v>
+        <v>112.73</v>
       </c>
       <c r="AW2" t="n">
-        <v>140.31</v>
+        <v>141.88</v>
       </c>
       <c r="AX2" t="n">
-        <v>110.03</v>
+        <v>110.47</v>
       </c>
       <c r="AY2" t="n">
-        <v>149.39</v>
+        <v>148.56</v>
       </c>
       <c r="AZ2" t="n">
-        <v>114.35</v>
+        <v>113.1</v>
       </c>
       <c r="BA2" t="n">
-        <v>143.86</v>
+        <v>143.77</v>
       </c>
       <c r="BB2" t="n">
-        <v>111.77</v>
+        <v>110.37</v>
       </c>
       <c r="BC2" t="n">
-        <v>150</v>
+        <v>143.91</v>
       </c>
       <c r="BD2" t="n">
-        <v>104</v>
+        <v>109.68</v>
       </c>
       <c r="BE2" t="n">
-        <v>147.65</v>
+        <v>147.31</v>
       </c>
       <c r="BF2" t="n">
-        <v>105.62</v>
+        <v>105.32</v>
       </c>
       <c r="BG2" t="n">
         <v>133.5</v>
@@ -14660,1608 +14660,1608 @@
         <v>114.18</v>
       </c>
       <c r="BK2" t="n">
-        <v>148.35</v>
+        <v>147.88</v>
       </c>
       <c r="BL2" t="n">
-        <v>118.99</v>
+        <v>117.04</v>
       </c>
       <c r="BM2" t="n">
-        <v>145.73</v>
+        <v>144.92</v>
       </c>
       <c r="BN2" t="n">
-        <v>114.5</v>
+        <v>112.56</v>
       </c>
       <c r="BO2" t="n">
-        <v>140.56</v>
+        <v>139.18</v>
       </c>
       <c r="BP2" t="n">
-        <v>119.16</v>
+        <v>116.46</v>
       </c>
       <c r="BQ2" t="n">
-        <v>144.52</v>
+        <v>144.74</v>
       </c>
       <c r="BR2" t="n">
-        <v>116.65</v>
+        <v>114.47</v>
       </c>
       <c r="BS2" t="n">
-        <v>140.78</v>
+        <v>142.45</v>
       </c>
       <c r="BT2" t="n">
-        <v>113.03</v>
+        <v>112.94</v>
       </c>
       <c r="BU2" t="n">
-        <v>145.72</v>
+        <v>145.69</v>
       </c>
       <c r="BV2" t="n">
-        <v>112.17</v>
+        <v>110.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>154</v>
+        <v>152.22</v>
       </c>
       <c r="B3" t="n">
-        <v>109.44</v>
+        <v>106.51</v>
       </c>
       <c r="C3" t="n">
-        <v>150.77</v>
+        <v>151.68</v>
       </c>
       <c r="D3" t="n">
-        <v>109.87</v>
+        <v>105.5</v>
       </c>
       <c r="E3" t="n">
-        <v>145.25</v>
+        <v>148.44</v>
       </c>
       <c r="F3" t="n">
-        <v>107.02</v>
+        <v>104.57</v>
       </c>
       <c r="G3" t="n">
-        <v>149.16</v>
+        <v>149.09</v>
       </c>
       <c r="H3" t="n">
-        <v>120.32</v>
+        <v>115.37</v>
       </c>
       <c r="I3" t="n">
-        <v>147.72</v>
+        <v>149.36</v>
       </c>
       <c r="J3" t="n">
-        <v>117.48</v>
+        <v>114.12</v>
       </c>
       <c r="K3" t="n">
-        <v>147.81</v>
+        <v>148.11</v>
       </c>
       <c r="L3" t="n">
-        <v>117.91</v>
+        <v>113.77</v>
       </c>
       <c r="M3" t="n">
-        <v>146.31</v>
+        <v>148.88</v>
       </c>
       <c r="N3" t="n">
-        <v>115.68</v>
+        <v>112.71</v>
       </c>
       <c r="O3" t="n">
-        <v>154.6</v>
+        <v>155.09</v>
       </c>
       <c r="P3" t="n">
-        <v>117.42</v>
+        <v>114.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.41</v>
+        <v>145</v>
       </c>
       <c r="R3" t="n">
-        <v>114.55</v>
+        <v>106</v>
       </c>
       <c r="S3" t="n">
-        <v>147.85</v>
+        <v>149.48</v>
       </c>
       <c r="T3" t="n">
-        <v>120.83</v>
+        <v>115.83</v>
       </c>
       <c r="U3" t="n">
-        <v>158.54</v>
+        <v>154.42</v>
       </c>
       <c r="V3" t="n">
-        <v>123.95</v>
+        <v>117.55</v>
       </c>
       <c r="W3" t="n">
-        <v>146.89</v>
+        <v>148.59</v>
       </c>
       <c r="X3" t="n">
-        <v>116.73</v>
+        <v>113.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.82</v>
+        <v>149.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>117.51</v>
+        <v>113.74</v>
       </c>
       <c r="AA3" t="n">
-        <v>154</v>
+        <v>150.16</v>
       </c>
       <c r="AB3" t="n">
-        <v>121</v>
+        <v>113.87</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.18</v>
+        <v>142.42</v>
       </c>
       <c r="AD3" t="n">
-        <v>117.67</v>
+        <v>113.39</v>
       </c>
       <c r="AE3" t="n">
-        <v>140.14</v>
+        <v>142.68</v>
       </c>
       <c r="AF3" t="n">
-        <v>115.62</v>
+        <v>112.24</v>
       </c>
       <c r="AG3" t="n">
-        <v>148.89</v>
+        <v>146.66</v>
       </c>
       <c r="AH3" t="n">
-        <v>117.39</v>
+        <v>113.29</v>
       </c>
       <c r="AI3" t="n">
-        <v>145.67</v>
+        <v>147.49</v>
       </c>
       <c r="AJ3" t="n">
-        <v>115.59</v>
+        <v>112.75</v>
       </c>
       <c r="AK3" t="n">
-        <v>146.68</v>
+        <v>147.41</v>
       </c>
       <c r="AL3" t="n">
-        <v>117.19</v>
+        <v>112.47</v>
       </c>
       <c r="AM3" t="n">
-        <v>150.51</v>
+        <v>150.28</v>
       </c>
       <c r="AN3" t="n">
-        <v>112.24</v>
+        <v>110.3</v>
       </c>
       <c r="AO3" t="n">
-        <v>146.39</v>
+        <v>146.72</v>
       </c>
       <c r="AP3" t="n">
-        <v>118.35</v>
+        <v>113.22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>143.22</v>
+        <v>144.26</v>
       </c>
       <c r="AR3" t="n">
-        <v>114.85</v>
+        <v>111.27</v>
       </c>
       <c r="AS3" t="n">
-        <v>142.48</v>
+        <v>143.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>117.25</v>
+        <v>112.89</v>
       </c>
       <c r="AU3" t="n">
-        <v>154.59</v>
+        <v>149.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>115.21</v>
+        <v>112.85</v>
       </c>
       <c r="AW3" t="n">
-        <v>139.13</v>
+        <v>141.79</v>
       </c>
       <c r="AX3" t="n">
-        <v>110.91</v>
+        <v>110.48</v>
       </c>
       <c r="AY3" t="n">
-        <v>148.3</v>
+        <v>148.59</v>
       </c>
       <c r="AZ3" t="n">
-        <v>118.07</v>
+        <v>113.07</v>
       </c>
       <c r="BA3" t="n">
-        <v>141.53</v>
+        <v>143.77</v>
       </c>
       <c r="BB3" t="n">
-        <v>112.98</v>
+        <v>110.37</v>
       </c>
       <c r="BC3" t="n">
-        <v>143.12</v>
+        <v>143.91</v>
       </c>
       <c r="BD3" t="n">
-        <v>110.46</v>
+        <v>109.68</v>
       </c>
       <c r="BE3" t="n">
-        <v>146.39</v>
+        <v>147.41</v>
       </c>
       <c r="BF3" t="n">
-        <v>107.66</v>
+        <v>105.27</v>
       </c>
       <c r="BG3" t="n">
-        <v>142.42</v>
+        <v>142.34</v>
       </c>
       <c r="BH3" t="n">
-        <v>112.61</v>
+        <v>111.97</v>
       </c>
       <c r="BI3" t="n">
-        <v>145.19</v>
+        <v>137</v>
       </c>
       <c r="BJ3" t="n">
-        <v>115.29</v>
+        <v>113</v>
       </c>
       <c r="BK3" t="n">
-        <v>147.59</v>
+        <v>147.89</v>
       </c>
       <c r="BL3" t="n">
-        <v>121.29</v>
+        <v>117.15</v>
       </c>
       <c r="BM3" t="n">
-        <v>146.81</v>
+        <v>144.96</v>
       </c>
       <c r="BN3" t="n">
-        <v>117.33</v>
+        <v>112.51</v>
       </c>
       <c r="BO3" t="n">
-        <v>140.34</v>
+        <v>138.58</v>
       </c>
       <c r="BP3" t="n">
-        <v>122.82</v>
+        <v>116.44</v>
       </c>
       <c r="BQ3" t="n">
-        <v>143.79</v>
+        <v>144.74</v>
       </c>
       <c r="BR3" t="n">
-        <v>117.95</v>
+        <v>114.47</v>
       </c>
       <c r="BS3" t="n">
-        <v>141.46</v>
+        <v>142.46</v>
       </c>
       <c r="BT3" t="n">
-        <v>116.24</v>
+        <v>112.95</v>
       </c>
       <c r="BU3" t="n">
-        <v>144.94</v>
+        <v>145.69</v>
       </c>
       <c r="BV3" t="n">
-        <v>115.02</v>
+        <v>110.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>155.73</v>
+        <v>150</v>
       </c>
       <c r="B4" t="n">
-        <v>110.35</v>
+        <v>113</v>
       </c>
       <c r="C4" t="n">
-        <v>149.57</v>
+        <v>151.93</v>
       </c>
       <c r="D4" t="n">
-        <v>112.16</v>
+        <v>105.72</v>
       </c>
       <c r="E4" t="n">
-        <v>144.16</v>
+        <v>147.85</v>
       </c>
       <c r="F4" t="n">
-        <v>107.84</v>
+        <v>104.85</v>
       </c>
       <c r="G4" t="n">
-        <v>149.84</v>
+        <v>149.07</v>
       </c>
       <c r="H4" t="n">
-        <v>122.1</v>
+        <v>115.34</v>
       </c>
       <c r="I4" t="n">
-        <v>146.73</v>
+        <v>155</v>
       </c>
       <c r="J4" t="n">
-        <v>119.65</v>
+        <v>109</v>
       </c>
       <c r="K4" t="n">
-        <v>148.18</v>
+        <v>148.24</v>
       </c>
       <c r="L4" t="n">
-        <v>119.76</v>
+        <v>114.3</v>
       </c>
       <c r="M4" t="n">
-        <v>146.02</v>
+        <v>148.17</v>
       </c>
       <c r="N4" t="n">
-        <v>116.63</v>
+        <v>112.86</v>
       </c>
       <c r="O4" t="n">
-        <v>155.46</v>
+        <v>155.09</v>
       </c>
       <c r="P4" t="n">
-        <v>120.29</v>
+        <v>114.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.84</v>
+        <v>151.29</v>
       </c>
       <c r="R4" t="n">
-        <v>116.77</v>
+        <v>113.28</v>
       </c>
       <c r="S4" t="n">
-        <v>145.99</v>
+        <v>150.16</v>
       </c>
       <c r="T4" t="n">
-        <v>122.61</v>
+        <v>116.47</v>
       </c>
       <c r="U4" t="n">
-        <v>156.99</v>
+        <v>154.46</v>
       </c>
       <c r="V4" t="n">
-        <v>127.05</v>
+        <v>117.58</v>
       </c>
       <c r="W4" t="n">
-        <v>146.96</v>
+        <v>148.64</v>
       </c>
       <c r="X4" t="n">
-        <v>118.55</v>
+        <v>113.32</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.43</v>
+        <v>149.58</v>
       </c>
       <c r="Z4" t="n">
-        <v>120.73</v>
+        <v>114.11</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.08</v>
+        <v>150.28</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.32</v>
+        <v>114.29</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.39</v>
+        <v>142.31</v>
       </c>
       <c r="AD4" t="n">
-        <v>119.32</v>
+        <v>113.41</v>
       </c>
       <c r="AE4" t="n">
-        <v>140.02</v>
+        <v>142.7</v>
       </c>
       <c r="AF4" t="n">
-        <v>118.63</v>
+        <v>112.57</v>
       </c>
       <c r="AG4" t="n">
-        <v>150</v>
+        <v>146.77</v>
       </c>
       <c r="AH4" t="n">
-        <v>120</v>
+        <v>113.53</v>
       </c>
       <c r="AI4" t="n">
-        <v>145.04</v>
+        <v>147.34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>116.84</v>
+        <v>113.38</v>
       </c>
       <c r="AK4" t="n">
-        <v>148.65</v>
+        <v>147.33</v>
       </c>
       <c r="AL4" t="n">
-        <v>120.28</v>
+        <v>112.76</v>
       </c>
       <c r="AM4" t="n">
-        <v>149.16</v>
+        <v>150.3</v>
       </c>
       <c r="AN4" t="n">
-        <v>114.26</v>
+        <v>110.31</v>
       </c>
       <c r="AO4" t="n">
-        <v>148.21</v>
+        <v>146.85</v>
       </c>
       <c r="AP4" t="n">
-        <v>120.92</v>
+        <v>113.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>142.52</v>
+        <v>144.11</v>
       </c>
       <c r="AR4" t="n">
-        <v>115.32</v>
+        <v>111.19</v>
       </c>
       <c r="AS4" t="n">
-        <v>144.02</v>
+        <v>143.14</v>
       </c>
       <c r="AT4" t="n">
-        <v>119.78</v>
+        <v>113.21</v>
       </c>
       <c r="AU4" t="n">
-        <v>156.03</v>
+        <v>149.45</v>
       </c>
       <c r="AV4" t="n">
-        <v>116.83</v>
+        <v>112.98</v>
       </c>
       <c r="AW4" t="n">
-        <v>137.78</v>
+        <v>142.02</v>
       </c>
       <c r="AX4" t="n">
-        <v>112.52</v>
+        <v>110.48</v>
       </c>
       <c r="AY4" t="n">
-        <v>149.47</v>
+        <v>148.86</v>
       </c>
       <c r="AZ4" t="n">
-        <v>120.66</v>
+        <v>113.15</v>
       </c>
       <c r="BA4" t="n">
-        <v>140.64</v>
+        <v>143.81</v>
       </c>
       <c r="BB4" t="n">
-        <v>114.36</v>
+        <v>110.48</v>
       </c>
       <c r="BC4" t="n">
-        <v>143.42</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>111.47</v>
+        <v>103</v>
       </c>
       <c r="BE4" t="n">
-        <v>145.67</v>
+        <v>147.34</v>
       </c>
       <c r="BF4" t="n">
-        <v>109.29</v>
+        <v>105.36</v>
       </c>
       <c r="BG4" t="n">
-        <v>140.51</v>
+        <v>142.34</v>
       </c>
       <c r="BH4" t="n">
-        <v>114.55</v>
+        <v>111.97</v>
       </c>
       <c r="BI4" t="n">
-        <v>145.75</v>
+        <v>145.91</v>
       </c>
       <c r="BJ4" t="n">
-        <v>117.59</v>
+        <v>114.21</v>
       </c>
       <c r="BK4" t="n">
-        <v>147.22</v>
+        <v>147.67</v>
       </c>
       <c r="BL4" t="n">
-        <v>122.25</v>
+        <v>117.22</v>
       </c>
       <c r="BM4" t="n">
-        <v>145.21</v>
+        <v>144.84</v>
       </c>
       <c r="BN4" t="n">
-        <v>120.41</v>
+        <v>112.71</v>
       </c>
       <c r="BO4" t="n">
-        <v>141.09</v>
+        <v>137</v>
       </c>
       <c r="BP4" t="n">
-        <v>125.47</v>
+        <v>125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>144.74</v>
+        <v>144.65</v>
       </c>
       <c r="BR4" t="n">
-        <v>120.52</v>
+        <v>114.62</v>
       </c>
       <c r="BS4" t="n">
-        <v>141.88</v>
+        <v>141.84</v>
       </c>
       <c r="BT4" t="n">
-        <v>118.92</v>
+        <v>113.73</v>
       </c>
       <c r="BU4" t="n">
-        <v>144.62</v>
+        <v>145.74</v>
       </c>
       <c r="BV4" t="n">
-        <v>116.85</v>
+        <v>110.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>157.5</v>
+        <v>152.1</v>
       </c>
       <c r="B5" t="n">
-        <v>111.21</v>
+        <v>106.45</v>
       </c>
       <c r="C5" t="n">
-        <v>150.08</v>
+        <v>151.99</v>
       </c>
       <c r="D5" t="n">
-        <v>114.3</v>
+        <v>105.81</v>
       </c>
       <c r="E5" t="n">
-        <v>142.74</v>
+        <v>147.63</v>
       </c>
       <c r="F5" t="n">
-        <v>108.58</v>
+        <v>104.63</v>
       </c>
       <c r="G5" t="n">
-        <v>150.63</v>
+        <v>149.05</v>
       </c>
       <c r="H5" t="n">
-        <v>125.38</v>
+        <v>115.49</v>
       </c>
       <c r="I5" t="n">
-        <v>145.43</v>
+        <v>149.3</v>
       </c>
       <c r="J5" t="n">
-        <v>120.76</v>
+        <v>114</v>
       </c>
       <c r="K5" t="n">
-        <v>147.91</v>
+        <v>148.01</v>
       </c>
       <c r="L5" t="n">
-        <v>122.03</v>
+        <v>114.35</v>
       </c>
       <c r="M5" t="n">
-        <v>146.77</v>
+        <v>147.92</v>
       </c>
       <c r="N5" t="n">
-        <v>119.11</v>
+        <v>112.77</v>
       </c>
       <c r="O5" t="n">
-        <v>156.44</v>
+        <v>154.73</v>
       </c>
       <c r="P5" t="n">
-        <v>123.31</v>
+        <v>115.09</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.98</v>
+        <v>151.72</v>
       </c>
       <c r="R5" t="n">
-        <v>119.66</v>
+        <v>113.62</v>
       </c>
       <c r="S5" t="n">
-        <v>145.3</v>
+        <v>150.48</v>
       </c>
       <c r="T5" t="n">
-        <v>123.12</v>
+        <v>116.73</v>
       </c>
       <c r="U5" t="n">
-        <v>158.03</v>
+        <v>154.44</v>
       </c>
       <c r="V5" t="n">
-        <v>129.28</v>
+        <v>117.9</v>
       </c>
       <c r="W5" t="n">
-        <v>147.77</v>
+        <v>148</v>
       </c>
       <c r="X5" t="n">
-        <v>120.93</v>
+        <v>112.98</v>
       </c>
       <c r="Y5" t="n">
-        <v>154.76</v>
+        <v>149.98</v>
       </c>
       <c r="Z5" t="n">
-        <v>123.9</v>
+        <v>114.47</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.4</v>
+        <v>150.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.63</v>
+        <v>114.59</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.47</v>
+        <v>142.35</v>
       </c>
       <c r="AD5" t="n">
-        <v>121.14</v>
+        <v>113.59</v>
       </c>
       <c r="AE5" t="n">
-        <v>140.57</v>
+        <v>142.68</v>
       </c>
       <c r="AF5" t="n">
-        <v>120.8</v>
+        <v>112.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>149.11</v>
+        <v>147.01</v>
       </c>
       <c r="AH5" t="n">
-        <v>121.64</v>
+        <v>113.58</v>
       </c>
       <c r="AI5" t="n">
-        <v>143.58</v>
+        <v>147.53</v>
       </c>
       <c r="AJ5" t="n">
-        <v>118.52</v>
+        <v>113.9</v>
       </c>
       <c r="AK5" t="n">
-        <v>149.44</v>
+        <v>147.44</v>
       </c>
       <c r="AL5" t="n">
-        <v>123.35</v>
+        <v>113.2</v>
       </c>
       <c r="AM5" t="n">
-        <v>148.51</v>
+        <v>150.58</v>
       </c>
       <c r="AN5" t="n">
-        <v>115.37</v>
+        <v>110.89</v>
       </c>
       <c r="AO5" t="n">
-        <v>148.78</v>
+        <v>146.87</v>
       </c>
       <c r="AP5" t="n">
-        <v>124.1</v>
+        <v>113.62</v>
       </c>
       <c r="AQ5" t="n">
-        <v>140.99</v>
+        <v>144.42</v>
       </c>
       <c r="AR5" t="n">
-        <v>117.26</v>
+        <v>111.59</v>
       </c>
       <c r="AS5" t="n">
-        <v>144.07</v>
+        <v>143.07</v>
       </c>
       <c r="AT5" t="n">
-        <v>120.91</v>
+        <v>113.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>157.32</v>
+        <v>150.01</v>
       </c>
       <c r="AV5" t="n">
-        <v>117.23</v>
+        <v>113.47</v>
       </c>
       <c r="AW5" t="n">
-        <v>137.74</v>
+        <v>142.37</v>
       </c>
       <c r="AX5" t="n">
-        <v>114.95</v>
+        <v>110.18</v>
       </c>
       <c r="AY5" t="n">
-        <v>151.7</v>
+        <v>148.89</v>
       </c>
       <c r="AZ5" t="n">
-        <v>122.39</v>
+        <v>113.26</v>
       </c>
       <c r="BA5" t="n">
-        <v>140.89</v>
+        <v>143.1</v>
       </c>
       <c r="BB5" t="n">
-        <v>116.56</v>
+        <v>110.4</v>
       </c>
       <c r="BC5" t="n">
-        <v>141.72</v>
+        <v>144.14</v>
       </c>
       <c r="BD5" t="n">
-        <v>113.8</v>
+        <v>109.86</v>
       </c>
       <c r="BE5" t="n">
-        <v>146.24</v>
+        <v>147.38</v>
       </c>
       <c r="BF5" t="n">
-        <v>110.54</v>
+        <v>105.31</v>
       </c>
       <c r="BG5" t="n">
-        <v>140.05</v>
+        <v>134</v>
       </c>
       <c r="BH5" t="n">
-        <v>116.03</v>
+        <v>106</v>
       </c>
       <c r="BI5" t="n">
-        <v>143.63</v>
+        <v>137</v>
       </c>
       <c r="BJ5" t="n">
-        <v>119.19</v>
+        <v>113</v>
       </c>
       <c r="BK5" t="n">
-        <v>139</v>
+        <v>147.65</v>
       </c>
       <c r="BL5" t="n">
-        <v>126</v>
+        <v>117.22</v>
       </c>
       <c r="BM5" t="n">
-        <v>146.74</v>
+        <v>144.75</v>
       </c>
       <c r="BN5" t="n">
-        <v>122.38</v>
+        <v>112.92</v>
       </c>
       <c r="BO5" t="n">
-        <v>143.23</v>
+        <v>138.6</v>
       </c>
       <c r="BP5" t="n">
-        <v>127.11</v>
+        <v>117.13</v>
       </c>
       <c r="BQ5" t="n">
-        <v>145.77</v>
+        <v>144.82</v>
       </c>
       <c r="BR5" t="n">
-        <v>123.05</v>
+        <v>115.54</v>
       </c>
       <c r="BS5" t="n">
-        <v>142.63</v>
+        <v>141.48</v>
       </c>
       <c r="BT5" t="n">
-        <v>119.64</v>
+        <v>114.05</v>
       </c>
       <c r="BU5" t="n">
-        <v>143.15</v>
+        <v>145</v>
       </c>
       <c r="BV5" t="n">
-        <v>116.93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>159.54</v>
+        <v>151.96</v>
       </c>
       <c r="B6" t="n">
-        <v>113.09</v>
+        <v>106.5</v>
       </c>
       <c r="C6" t="n">
-        <v>154.11</v>
+        <v>152.16</v>
       </c>
       <c r="D6" t="n">
-        <v>116.77</v>
+        <v>106.56</v>
       </c>
       <c r="E6" t="n">
-        <v>141.5</v>
+        <v>147.44</v>
       </c>
       <c r="F6" t="n">
-        <v>110.68</v>
+        <v>104.75</v>
       </c>
       <c r="G6" t="n">
-        <v>151.7</v>
+        <v>148.82</v>
       </c>
       <c r="H6" t="n">
-        <v>126.96</v>
+        <v>115.81</v>
       </c>
       <c r="I6" t="n">
-        <v>143.4</v>
+        <v>149.35</v>
       </c>
       <c r="J6" t="n">
-        <v>120.78</v>
+        <v>114.1</v>
       </c>
       <c r="K6" t="n">
-        <v>148.01</v>
+        <v>147.83</v>
       </c>
       <c r="L6" t="n">
-        <v>125.1</v>
+        <v>114.25</v>
       </c>
       <c r="M6" t="n">
-        <v>146.33</v>
+        <v>148.06</v>
       </c>
       <c r="N6" t="n">
-        <v>120.26</v>
+        <v>112.7</v>
       </c>
       <c r="O6" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P6" t="n">
-        <v>124.74</v>
+        <v>122</v>
       </c>
       <c r="Q6" t="n">
-        <v>151.3</v>
+        <v>151.66</v>
       </c>
       <c r="R6" t="n">
-        <v>122.69</v>
+        <v>113.64</v>
       </c>
       <c r="S6" t="n">
-        <v>144.28</v>
+        <v>150.78</v>
       </c>
       <c r="T6" t="n">
-        <v>126.86</v>
+        <v>117.13</v>
       </c>
       <c r="U6" t="n">
-        <v>158.36</v>
+        <v>154.44</v>
       </c>
       <c r="V6" t="n">
-        <v>131.17</v>
+        <v>118.19</v>
       </c>
       <c r="W6" t="n">
-        <v>147.66</v>
+        <v>147.48</v>
       </c>
       <c r="X6" t="n">
-        <v>125.09</v>
+        <v>113.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>154.41</v>
+        <v>150.46</v>
       </c>
       <c r="Z6" t="n">
-        <v>128.33</v>
+        <v>114.44</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.8</v>
+        <v>150.14</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.51</v>
+        <v>114.42</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.51</v>
+        <v>142.03</v>
       </c>
       <c r="AD6" t="n">
-        <v>122.86</v>
+        <v>113.18</v>
       </c>
       <c r="AE6" t="n">
-        <v>140.36</v>
+        <v>142.65</v>
       </c>
       <c r="AF6" t="n">
-        <v>122.11</v>
+        <v>112.57</v>
       </c>
       <c r="AG6" t="n">
-        <v>149.67</v>
+        <v>147.18</v>
       </c>
       <c r="AH6" t="n">
-        <v>123.79</v>
+        <v>113.88</v>
       </c>
       <c r="AI6" t="n">
-        <v>142.16</v>
+        <v>147.47</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120.35</v>
+        <v>114.02</v>
       </c>
       <c r="AK6" t="n">
-        <v>149.07</v>
+        <v>147.33</v>
       </c>
       <c r="AL6" t="n">
-        <v>124.4</v>
+        <v>113.66</v>
       </c>
       <c r="AM6" t="n">
-        <v>147.07</v>
+        <v>150.76</v>
       </c>
       <c r="AN6" t="n">
-        <v>116.92</v>
+        <v>111.18</v>
       </c>
       <c r="AO6" t="n">
-        <v>148.33</v>
+        <v>146.77</v>
       </c>
       <c r="AP6" t="n">
-        <v>125.2</v>
+        <v>114.14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>142.48</v>
+        <v>144</v>
       </c>
       <c r="AR6" t="n">
-        <v>119.6</v>
+        <v>104</v>
       </c>
       <c r="AS6" t="n">
-        <v>143.32</v>
+        <v>143.15</v>
       </c>
       <c r="AT6" t="n">
-        <v>122.02</v>
+        <v>113.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>158.89</v>
+        <v>150.26</v>
       </c>
       <c r="AV6" t="n">
-        <v>119.16</v>
+        <v>113.64</v>
       </c>
       <c r="AW6" t="n">
-        <v>136.51</v>
+        <v>142.34</v>
       </c>
       <c r="AX6" t="n">
-        <v>116.04</v>
+        <v>110.28</v>
       </c>
       <c r="AY6" t="n">
-        <v>151.94</v>
+        <v>149.06</v>
       </c>
       <c r="AZ6" t="n">
-        <v>124.48</v>
+        <v>113.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>141.21</v>
+        <v>142.88</v>
       </c>
       <c r="BB6" t="n">
-        <v>117.73</v>
+        <v>110.77</v>
       </c>
       <c r="BC6" t="n">
-        <v>143.02</v>
+        <v>143.88</v>
       </c>
       <c r="BD6" t="n">
-        <v>114.74</v>
+        <v>109.99</v>
       </c>
       <c r="BE6" t="n">
-        <v>147</v>
+        <v>147.45</v>
       </c>
       <c r="BF6" t="n">
-        <v>113.33</v>
+        <v>105.17</v>
       </c>
       <c r="BG6" t="n">
-        <v>140.38</v>
+        <v>141.78</v>
       </c>
       <c r="BH6" t="n">
-        <v>118.3</v>
+        <v>111.77</v>
       </c>
       <c r="BI6" t="n">
-        <v>142.8</v>
+        <v>145.92</v>
       </c>
       <c r="BJ6" t="n">
-        <v>120.34</v>
+        <v>114.18</v>
       </c>
       <c r="BK6" t="n">
-        <v>147.4</v>
+        <v>147.65</v>
       </c>
       <c r="BL6" t="n">
-        <v>124.27</v>
+        <v>117.45</v>
       </c>
       <c r="BM6" t="n">
-        <v>146.48</v>
+        <v>144.92</v>
       </c>
       <c r="BN6" t="n">
-        <v>124.59</v>
+        <v>113.48</v>
       </c>
       <c r="BO6" t="n">
-        <v>144.33</v>
+        <v>138.83</v>
       </c>
       <c r="BP6" t="n">
-        <v>128.88</v>
+        <v>116.89</v>
       </c>
       <c r="BQ6" t="n">
-        <v>146.55</v>
+        <v>144.71</v>
       </c>
       <c r="BR6" t="n">
-        <v>124.45</v>
+        <v>115.43</v>
       </c>
       <c r="BS6" t="n">
-        <v>144.6</v>
+        <v>140.7</v>
       </c>
       <c r="BT6" t="n">
-        <v>120.79</v>
+        <v>113.59</v>
       </c>
       <c r="BU6" t="n">
-        <v>143.12</v>
+        <v>145.71</v>
       </c>
       <c r="BV6" t="n">
-        <v>119.23</v>
+        <v>111.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>163.16</v>
+        <v>152.12</v>
       </c>
       <c r="B7" t="n">
+        <v>106.48</v>
+      </c>
+      <c r="C7" t="n">
+        <v>152.04</v>
+      </c>
+      <c r="D7" t="n">
+        <v>107.09</v>
+      </c>
+      <c r="E7" t="n">
+        <v>147.61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>104.42</v>
+      </c>
+      <c r="G7" t="n">
+        <v>148.64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>116.18</v>
+      </c>
+      <c r="I7" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>114.28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>147.54</v>
+      </c>
+      <c r="L7" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>147.72</v>
+      </c>
+      <c r="N7" t="n">
+        <v>112.81</v>
+      </c>
+      <c r="O7" t="n">
+        <v>155.42</v>
+      </c>
+      <c r="P7" t="n">
+        <v>115.57</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>151.78</v>
+      </c>
+      <c r="R7" t="n">
+        <v>113.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>151</v>
+      </c>
+      <c r="T7" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>155.58</v>
+      </c>
+      <c r="V7" t="n">
+        <v>118.01</v>
+      </c>
+      <c r="W7" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>113.69</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>150.65</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>149.21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>114.56</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>142.55</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>113.98</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>112.53</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>147.24</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>114.02</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>147.43</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>114</v>
       </c>
-      <c r="C7" t="n">
-        <v>155.61</v>
-      </c>
-      <c r="D7" t="n">
-        <v>118.83</v>
-      </c>
-      <c r="E7" t="n">
-        <v>139.84</v>
-      </c>
-      <c r="F7" t="n">
-        <v>112.02</v>
-      </c>
-      <c r="G7" t="n">
-        <v>152.29</v>
-      </c>
-      <c r="H7" t="n">
-        <v>128.83</v>
-      </c>
-      <c r="I7" t="n">
-        <v>142.29</v>
-      </c>
-      <c r="J7" t="n">
-        <v>122.19</v>
-      </c>
-      <c r="K7" t="n">
-        <v>148.29</v>
-      </c>
-      <c r="L7" t="n">
-        <v>127.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>146.37</v>
-      </c>
-      <c r="N7" t="n">
-        <v>123.34</v>
-      </c>
-      <c r="O7" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>127.71</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>125.22</v>
-      </c>
-      <c r="S7" t="n">
-        <v>144.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>129.74</v>
-      </c>
-      <c r="U7" t="n">
-        <v>158.71</v>
-      </c>
-      <c r="V7" t="n">
-        <v>132.51</v>
-      </c>
-      <c r="W7" t="n">
-        <v>148.13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>127.68</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>156.72</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>131.29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>146.55</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>123.32</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>144.52</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>125.48</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>124.49</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>125.37</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>141.91</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>122.24</v>
-      </c>
       <c r="AK7" t="n">
-        <v>149.79</v>
+        <v>147.34</v>
       </c>
       <c r="AL7" t="n">
-        <v>125.53</v>
+        <v>113.98</v>
       </c>
       <c r="AM7" t="n">
-        <v>148.5</v>
+        <v>150.9</v>
       </c>
       <c r="AN7" t="n">
-        <v>118.94</v>
+        <v>111.19</v>
       </c>
       <c r="AO7" t="n">
-        <v>149.31</v>
+        <v>146.82</v>
       </c>
       <c r="AP7" t="n">
-        <v>126.24</v>
+        <v>114.12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>143.08</v>
+        <v>144.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>121.51</v>
+        <v>111.56</v>
       </c>
       <c r="AS7" t="n">
-        <v>143.37</v>
+        <v>143.14</v>
       </c>
       <c r="AT7" t="n">
-        <v>124.14</v>
+        <v>114.16</v>
       </c>
       <c r="AU7" t="n">
-        <v>161.4</v>
+        <v>150.75</v>
       </c>
       <c r="AV7" t="n">
-        <v>120.69</v>
+        <v>113.68</v>
       </c>
       <c r="AW7" t="n">
-        <v>135.63</v>
+        <v>142.36</v>
       </c>
       <c r="AX7" t="n">
-        <v>117.33</v>
+        <v>110.28</v>
       </c>
       <c r="AY7" t="n">
-        <v>154.45</v>
+        <v>149.41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>127.52</v>
+        <v>113.76</v>
       </c>
       <c r="BA7" t="n">
-        <v>141.82</v>
+        <v>142.9</v>
       </c>
       <c r="BB7" t="n">
-        <v>119.12</v>
+        <v>111.21</v>
       </c>
       <c r="BC7" t="n">
-        <v>141.63</v>
+        <v>150</v>
       </c>
       <c r="BD7" t="n">
-        <v>116.86</v>
+        <v>103</v>
       </c>
       <c r="BE7" t="n">
-        <v>147.07</v>
+        <v>147.62</v>
       </c>
       <c r="BF7" t="n">
-        <v>116.13</v>
+        <v>105.44</v>
       </c>
       <c r="BG7" t="n">
-        <v>141.09</v>
+        <v>141.94</v>
       </c>
       <c r="BH7" t="n">
-        <v>120.57</v>
+        <v>111.74</v>
       </c>
       <c r="BI7" t="n">
-        <v>141.83</v>
+        <v>145.42</v>
       </c>
       <c r="BJ7" t="n">
-        <v>122.2</v>
+        <v>114.38</v>
       </c>
       <c r="BK7" t="n">
-        <v>146.45</v>
+        <v>148.03</v>
       </c>
       <c r="BL7" t="n">
-        <v>126.05</v>
+        <v>117.62</v>
       </c>
       <c r="BM7" t="n">
-        <v>147.34</v>
+        <v>144.95</v>
       </c>
       <c r="BN7" t="n">
-        <v>126.43</v>
+        <v>113.51</v>
       </c>
       <c r="BO7" t="n">
-        <v>143.74</v>
+        <v>139.27</v>
       </c>
       <c r="BP7" t="n">
-        <v>131.36</v>
+        <v>117.22</v>
       </c>
       <c r="BQ7" t="n">
-        <v>147.9</v>
+        <v>144.54</v>
       </c>
       <c r="BR7" t="n">
-        <v>126.35</v>
+        <v>115.74</v>
       </c>
       <c r="BS7" t="n">
-        <v>145.19</v>
+        <v>140.86</v>
       </c>
       <c r="BT7" t="n">
-        <v>123.69</v>
+        <v>113.63</v>
       </c>
       <c r="BU7" t="n">
-        <v>143.11</v>
+        <v>144.5</v>
       </c>
       <c r="BV7" t="n">
-        <v>120.23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>165.01</v>
+        <v>151.98</v>
       </c>
       <c r="B8" t="n">
-        <v>114.51</v>
+        <v>106.58</v>
       </c>
       <c r="C8" t="n">
-        <v>156.62</v>
+        <v>152.19</v>
       </c>
       <c r="D8" t="n">
-        <v>121</v>
+        <v>107.7</v>
       </c>
       <c r="E8" t="n">
-        <v>137.71</v>
+        <v>147.26</v>
       </c>
       <c r="F8" t="n">
-        <v>113.12</v>
+        <v>105</v>
       </c>
       <c r="G8" t="n">
-        <v>153.65</v>
+        <v>148.68</v>
       </c>
       <c r="H8" t="n">
-        <v>131.77</v>
+        <v>116.6</v>
       </c>
       <c r="I8" t="n">
-        <v>141.75</v>
+        <v>149.03</v>
       </c>
       <c r="J8" t="n">
-        <v>124.04</v>
+        <v>114.65</v>
       </c>
       <c r="K8" t="n">
-        <v>148.76</v>
+        <v>147.58</v>
       </c>
       <c r="L8" t="n">
-        <v>129.62</v>
+        <v>114.63</v>
       </c>
       <c r="M8" t="n">
-        <v>148.36</v>
+        <v>147.36</v>
       </c>
       <c r="N8" t="n">
-        <v>125.14</v>
+        <v>113.06</v>
       </c>
       <c r="O8" t="n">
-        <v>157.33</v>
+        <v>156.03</v>
       </c>
       <c r="P8" t="n">
-        <v>131.23</v>
+        <v>115.95</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.48</v>
+        <v>152.05</v>
       </c>
       <c r="R8" t="n">
-        <v>128.07</v>
+        <v>113.88</v>
       </c>
       <c r="S8" t="n">
-        <v>144.08</v>
+        <v>150.65</v>
       </c>
       <c r="T8" t="n">
-        <v>131.28</v>
+        <v>117.77</v>
       </c>
       <c r="U8" t="n">
-        <v>160.12</v>
+        <v>156.23</v>
       </c>
       <c r="V8" t="n">
-        <v>134.25</v>
+        <v>118.47</v>
       </c>
       <c r="W8" t="n">
-        <v>148.68</v>
+        <v>147.12</v>
       </c>
       <c r="X8" t="n">
-        <v>130.18</v>
+        <v>114.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>160.88</v>
+        <v>151.38</v>
       </c>
       <c r="Z8" t="n">
-        <v>131.76</v>
+        <v>114.91</v>
       </c>
       <c r="AA8" t="n">
-        <v>146.36</v>
+        <v>148.94</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.23</v>
+        <v>114.32</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.41</v>
+        <v>142.56</v>
       </c>
       <c r="AD8" t="n">
-        <v>127.84</v>
+        <v>114.09</v>
       </c>
       <c r="AE8" t="n">
+        <v>142.37</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>112.55</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>147.23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>114.26</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>147.08</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>114.43</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>150.72</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>111.31</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>146.72</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>114.91</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>144</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>104</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>143</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>114.67</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>151.08</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>113.77</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>141.31</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>110.94</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>149.63</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>113.92</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>142.97</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>111.28</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>143.81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>109.79</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>147.55</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>105.38</v>
+      </c>
+      <c r="BG8" t="n">
         <v>142.2</v>
       </c>
-      <c r="AF8" t="n">
-        <v>126.3</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151.65</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>126.86</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>140.51</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>125.41</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>152.16</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>128.46</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>149.01</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>121.14</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>151.76</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>128.89</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>142.73</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>123.87</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>143.53</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>126.09</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>163.91</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>135.31</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>119.78</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>155.65</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>130.84</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>141.94</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>120.91</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>140.97</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>118.03</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>146.62</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>118.48</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>141.26</v>
-      </c>
       <c r="BH8" t="n">
-        <v>123.2</v>
+        <v>111.96</v>
       </c>
       <c r="BI8" t="n">
-        <v>142.42</v>
+        <v>145.49</v>
       </c>
       <c r="BJ8" t="n">
-        <v>125.25</v>
+        <v>114.5</v>
       </c>
       <c r="BK8" t="n">
-        <v>146.17</v>
+        <v>148.14</v>
       </c>
       <c r="BL8" t="n">
-        <v>128.64</v>
+        <v>118.11</v>
       </c>
       <c r="BM8" t="n">
-        <v>147.96</v>
+        <v>144.91</v>
       </c>
       <c r="BN8" t="n">
-        <v>128.81</v>
+        <v>113.73</v>
       </c>
       <c r="BO8" t="n">
-        <v>143.84</v>
+        <v>139.68</v>
       </c>
       <c r="BP8" t="n">
-        <v>133.61</v>
+        <v>117.17</v>
       </c>
       <c r="BQ8" t="n">
-        <v>147.82</v>
+        <v>144.33</v>
       </c>
       <c r="BR8" t="n">
-        <v>128.04</v>
+        <v>116.09</v>
       </c>
       <c r="BS8" t="n">
-        <v>146.49</v>
+        <v>140.95</v>
       </c>
       <c r="BT8" t="n">
-        <v>125.41</v>
+        <v>113.77</v>
       </c>
       <c r="BU8" t="n">
-        <v>142.95</v>
+        <v>145.82</v>
       </c>
       <c r="BV8" t="n">
-        <v>121.44</v>
+        <v>111.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>166.51</v>
+        <v>152.01</v>
       </c>
       <c r="B9" t="n">
-        <v>116.22</v>
+        <v>106.58</v>
       </c>
       <c r="C9" t="n">
-        <v>157.83</v>
+        <v>152.04</v>
       </c>
       <c r="D9" t="n">
-        <v>123.62</v>
+        <v>108.21</v>
       </c>
       <c r="E9" t="n">
-        <v>134.36</v>
+        <v>147.04</v>
       </c>
       <c r="F9" t="n">
-        <v>114.45</v>
+        <v>105.38</v>
       </c>
       <c r="G9" t="n">
-        <v>156.8</v>
+        <v>148.64</v>
       </c>
       <c r="H9" t="n">
-        <v>132.95</v>
+        <v>116.55</v>
       </c>
       <c r="I9" t="n">
-        <v>141.34</v>
+        <v>148.83</v>
       </c>
       <c r="J9" t="n">
-        <v>124.79</v>
+        <v>114.58</v>
       </c>
       <c r="K9" t="n">
-        <v>148.91</v>
+        <v>147.73</v>
       </c>
       <c r="L9" t="n">
-        <v>131.06</v>
+        <v>114.66</v>
       </c>
       <c r="M9" t="n">
-        <v>150.37</v>
+        <v>147.73</v>
       </c>
       <c r="N9" t="n">
-        <v>127.16</v>
+        <v>113.22</v>
       </c>
       <c r="O9" t="n">
-        <v>159.97</v>
+        <v>155.72</v>
       </c>
       <c r="P9" t="n">
-        <v>132.38</v>
+        <v>115.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.58</v>
+        <v>152.61</v>
       </c>
       <c r="R9" t="n">
-        <v>129.34</v>
+        <v>114.14</v>
       </c>
       <c r="S9" t="n">
-        <v>142.39</v>
+        <v>150.47</v>
       </c>
       <c r="T9" t="n">
-        <v>134.29</v>
+        <v>117.92</v>
       </c>
       <c r="U9" t="n">
-        <v>162.55</v>
+        <v>156.79</v>
       </c>
       <c r="V9" t="n">
-        <v>137.18</v>
+        <v>118.64</v>
       </c>
       <c r="W9" t="n">
-        <v>149.49</v>
+        <v>146.91</v>
       </c>
       <c r="X9" t="n">
-        <v>131.46</v>
+        <v>114.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>162.82</v>
+        <v>152.04</v>
       </c>
       <c r="Z9" t="n">
-        <v>133.58</v>
+        <v>115.27</v>
       </c>
       <c r="AA9" t="n">
-        <v>147.91</v>
+        <v>148.72</v>
       </c>
       <c r="AB9" t="n">
-        <v>125.98</v>
+        <v>114.62</v>
       </c>
       <c r="AC9" t="n">
-        <v>145.33</v>
+        <v>141.66</v>
       </c>
       <c r="AD9" t="n">
-        <v>130.55</v>
+        <v>114.38</v>
       </c>
       <c r="AE9" t="n">
-        <v>143.21</v>
+        <v>142.43</v>
       </c>
       <c r="AF9" t="n">
-        <v>126.9</v>
+        <v>112.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>152.84</v>
+        <v>147.29</v>
       </c>
       <c r="AH9" t="n">
-        <v>128.21</v>
+        <v>114.61</v>
       </c>
       <c r="AI9" t="n">
-        <v>140.41</v>
+        <v>147.45</v>
       </c>
       <c r="AJ9" t="n">
-        <v>127.33</v>
+        <v>114.31</v>
       </c>
       <c r="AK9" t="n">
-        <v>153.59</v>
+        <v>146.91</v>
       </c>
       <c r="AL9" t="n">
-        <v>130.71</v>
+        <v>114.78</v>
       </c>
       <c r="AM9" t="n">
-        <v>148.92</v>
+        <v>150.57</v>
       </c>
       <c r="AN9" t="n">
-        <v>123.43</v>
+        <v>111.55</v>
       </c>
       <c r="AO9" t="n">
-        <v>153.13</v>
+        <v>146.58</v>
       </c>
       <c r="AP9" t="n">
-        <v>131.07</v>
+        <v>114.91</v>
       </c>
       <c r="AQ9" t="n">
-        <v>143.04</v>
+        <v>144.85</v>
       </c>
       <c r="AR9" t="n">
-        <v>126.23</v>
+        <v>111.63</v>
       </c>
       <c r="AS9" t="n">
-        <v>143.73</v>
+        <v>142.45</v>
       </c>
       <c r="AT9" t="n">
-        <v>127.74</v>
+        <v>114.87</v>
       </c>
       <c r="AU9" t="n">
-        <v>165.88</v>
+        <v>151.17</v>
       </c>
       <c r="AV9" t="n">
-        <v>122.07</v>
+        <v>113.77</v>
       </c>
       <c r="AW9" t="n">
-        <v>133.9</v>
+        <v>141</v>
       </c>
       <c r="AX9" t="n">
-        <v>122.97</v>
+        <v>110.77</v>
       </c>
       <c r="AY9" t="n">
-        <v>156.71</v>
+        <v>149.4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>134.04</v>
+        <v>114.16</v>
       </c>
       <c r="BA9" t="n">
-        <v>141.48</v>
+        <v>149</v>
       </c>
       <c r="BB9" t="n">
-        <v>124.09</v>
+        <v>105</v>
       </c>
       <c r="BC9" t="n">
-        <v>139.82</v>
+        <v>143.48</v>
       </c>
       <c r="BD9" t="n">
-        <v>119.49</v>
+        <v>110.09</v>
       </c>
       <c r="BE9" t="n">
-        <v>146.25</v>
+        <v>147.99</v>
       </c>
       <c r="BF9" t="n">
-        <v>119.25</v>
+        <v>105.51</v>
       </c>
       <c r="BG9" t="n">
-        <v>141.4</v>
+        <v>142.35</v>
       </c>
       <c r="BH9" t="n">
-        <v>125.4</v>
+        <v>112.17</v>
       </c>
       <c r="BI9" t="n">
-        <v>142.39</v>
+        <v>145.87</v>
       </c>
       <c r="BJ9" t="n">
-        <v>126.84</v>
+        <v>114.74</v>
       </c>
       <c r="BK9" t="n">
-        <v>147.08</v>
+        <v>148.12</v>
       </c>
       <c r="BL9" t="n">
-        <v>130.39</v>
+        <v>118.17</v>
       </c>
       <c r="BM9" t="n">
-        <v>148.45</v>
+        <v>145.03</v>
       </c>
       <c r="BN9" t="n">
-        <v>131.89</v>
+        <v>113.98</v>
       </c>
       <c r="BO9" t="n">
-        <v>145.56</v>
+        <v>139.7</v>
       </c>
       <c r="BP9" t="n">
-        <v>136.43</v>
+        <v>117.8</v>
       </c>
       <c r="BQ9" t="n">
-        <v>147.98</v>
+        <v>144.15</v>
       </c>
       <c r="BR9" t="n">
-        <v>130.3</v>
+        <v>116.41</v>
       </c>
       <c r="BS9" t="n">
-        <v>148.24</v>
+        <v>140.81</v>
       </c>
       <c r="BT9" t="n">
-        <v>126.51</v>
+        <v>113.53</v>
       </c>
       <c r="BU9" t="n">
-        <v>141.53</v>
+        <v>146.01</v>
       </c>
       <c r="BV9" t="n">
-        <v>124.15</v>
+        <v>111.24</v>
       </c>
     </row>
     <row r="10">
